--- a/biology/Zoologie/Colobocentrotus_pedifer/Colobocentrotus_pedifer.xlsx
+++ b/biology/Zoologie/Colobocentrotus_pedifer/Colobocentrotus_pedifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colobocentrotus pedifer, l'oursin « porte-houlette », est une espèce d'oursins de la famille des Echinometridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les espèces de son genre, cet oursin a abdiqué ses piquants pour une mosaïque de plaques imbriquées le faisant ressembler à une tortue. Il est de couleur beige à vert sombre avec les radioles périphériques allongées à pointes roses, en forme de houlettes d'après le descripteur Henri-Marie Ducrotay de Blainville[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les espèces de son genre, cet oursin a abdiqué ses piquants pour une mosaïque de plaques imbriquées le faisant ressembler à une tortue. Il est de couleur beige à vert sombre avec les radioles périphériques allongées à pointes roses, en forme de houlettes d'après le descripteur Henri-Marie Ducrotay de Blainville. 
 			Face orale.
 			Colobocentrotus pedifer au NHM de Londres.
 </t>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce semble endémique des Tuamotu en Polynésie Française, où elle vit sur les falaises rocheuses[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce semble endémique des Tuamotu en Polynésie Française, où elle vit sur les falaises rocheuses. 
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Colobocentrotus pedifer (Blainville, 1825)[3].
-L'espèce a été initialement classée dans le genre Echinus sous le protonyme Echinus pedifer Blainville, 1825[3]. Le nom de genre Podophora proposé par Louis Agassiz (1840) a par la suite été déplacé comme sous-genre.
-Cette espèce porte les noms vernaculaires suivants[4] : Oursin-tortue, Oursin-calotte d'évêque, Oursin-bonnet d'évêque, Oursin-casque, Oursin-bouclier, Oursin-artichaut, Oursin-bonnet de prêtre (nom déjà couramment utilisé pour désigner Tripneustes gratilla.
-Colobocentrotus pedifer a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Colobocentrotus pedifer (Blainville, 1825).
+L'espèce a été initialement classée dans le genre Echinus sous le protonyme Echinus pedifer Blainville, 1825. Le nom de genre Podophora proposé par Louis Agassiz (1840) a par la suite été déplacé comme sous-genre.
+Cette espèce porte les noms vernaculaires suivants : Oursin-tortue, Oursin-calotte d'évêque, Oursin-bonnet d'évêque, Oursin-casque, Oursin-bouclier, Oursin-artichaut, Oursin-bonnet de prêtre (nom déjà couramment utilisé pour désigner Tripneustes gratilla.
+Colobocentrotus pedifer a pour synonymes :
 Echinus pedifera Blainville, 1825
 Echinometra pedifera (Blainville, 1825)
 Echinus pedifer Blainville, 1825
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blainville, H. M. D. d. 1825. Oursin, Echinus (Actinozoaires.), Pp. 59-98 in Dictionnaire des Sciences Naturelles F.G. Levrault, Strasbourg &amp; Paris.</t>
         </is>
